--- a/项目文档/概要设计/链接文档/信息交换类型.xlsx
+++ b/项目文档/概要设计/链接文档/信息交换类型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjr12\Desktop\OnPointLink\git\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\东软实习\OnPointLinkDocument\数据库与客户端信息交换方式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669F2E8B-526F-4AD8-BD35-8952EDA65578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35D7008-CDF4-497A-B033-E5BDE6CB2A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="106">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -441,12 +441,103 @@
 Sex必须是男或者女或者其他或者空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>服务器与客户端的信息交换接口
+（采取.json文件作为传递主要方式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改：json文件中只留下必填的
+transType,Name,Password，
+以及返回的OID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-&gt;C(Sender)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请请求处理结果(申请信息是否成功发送)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-&gt;C(Target)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器发送申请请求到接收者的客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收者的客户端向服务器发送结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器向申请者发送申请加好友的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请者向服务器发送申请加好友的请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendResultToApplicant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendResultFromReceiverClientToServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendRequestToReceiverClient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessFriendRequestResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendFriendRequestToServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C(Target)-&gt;S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"OID1":,"OID2","RequestMessage",}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"OID1","OID2","Status","log"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"OID1","OID2","RequestMessage"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"OID1","OID2","ReplyMessage"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"OID1","OID2","Status","ReplyMessage"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个status记录是否成功申请，比如是否存在账号或者其他报错信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个status记录是不是同意申请</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +567,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -499,7 +608,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -508,6 +617,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,384 +903,478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="42.88671875" customWidth="1"/>
     <col min="2" max="2" width="28" style="2" customWidth="1"/>
     <col min="4" max="4" width="46.44140625" customWidth="1"/>
     <col min="5" max="5" width="51.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="158.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:6" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="F3" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:6" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:5" ht="100.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>66</v>
       </c>
     </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
